--- a/Federal/f1040s3-2019.xlsx
+++ b/Federal/f1040s3-2019.xlsx
@@ -206,14 +206,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -510,104 +513,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>SUM(D3:D8)</f>
         <v>0</v>
       </c>
@@ -618,96 +621,96 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>SUM(D12:D17)</f>
         <v>0</v>
       </c>
